--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/105.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/105.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07631848087174624</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.582659053502924</v>
+        <v>-1.574214135345108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07596287800981265</v>
+        <v>0.04561723848836625</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1272728961484964</v>
+        <v>-0.1136506474603182</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07053935519888063</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.660755565837539</v>
+        <v>-1.679080629426534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06281806504736163</v>
+        <v>0.01635495465037411</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1090514959739558</v>
+        <v>-0.09249017047877847</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07949763504210759</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.776370933964236</v>
+        <v>-1.797907373329184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1040673437117142</v>
+        <v>0.04505950011763913</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1938087476992967</v>
+        <v>-0.1525740695158533</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1087416548674517</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.970990234314047</v>
+        <v>-1.99503284622704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1192664443380737</v>
+        <v>0.08413038703035591</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1809909855092093</v>
+        <v>-0.1609912467599419</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1592145420128831</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.123820038205869</v>
+        <v>-2.117467368962326</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1254117867527085</v>
+        <v>0.1367811812366145</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.179764545112846</v>
+        <v>-0.1691003538568488</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2269103820806551</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.93788072375651</v>
+        <v>-2.000108703415084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2666159577206705</v>
+        <v>0.2541792680823102</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.210003601123656</v>
+        <v>-0.1843563963587538</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3041714370643797</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.687969402203986</v>
+        <v>-1.747313056858971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3001357417917525</v>
+        <v>0.3346804796226523</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.218159429759472</v>
+        <v>-0.1811267699816638</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3799825704634283</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.268834856794917</v>
+        <v>-1.31389194088036</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3833409623964574</v>
+        <v>0.3832825604728211</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1813808183494819</v>
+        <v>-0.1619723990770325</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4412036886744724</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7631778615185983</v>
+        <v>-0.80114787217077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3825861175334576</v>
+        <v>0.3750770902019142</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1452168871857643</v>
+        <v>-0.1187695760670441</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4754539898809264</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1668650202296676</v>
+        <v>-0.1899775815087523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2986362724023892</v>
+        <v>0.2873939021023922</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.109977166463592</v>
+        <v>-0.09394875852159627</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.4714830776095674</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6045849697080343</v>
+        <v>0.5391937958605064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04198609888627632</v>
+        <v>0.06354078885236145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02802803913718916</v>
+        <v>0.0132304517358295</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4236498742016693</v>
       </c>
       <c r="E13" t="n">
-        <v>1.207520589137327</v>
+        <v>1.218281143567324</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2533597291831898</v>
+        <v>-0.2519580830159175</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1991135543336887</v>
+        <v>0.148446965482975</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3324989126778233</v>
       </c>
       <c r="E14" t="n">
-        <v>1.944871155911856</v>
+        <v>1.99119994188448</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7611980363073262</v>
+        <v>-0.7126879384868847</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2305775906927711</v>
+        <v>0.249337748612857</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1998286833750007</v>
       </c>
       <c r="E15" t="n">
-        <v>2.766018262767909</v>
+        <v>2.806931730371352</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.148528354152131</v>
+        <v>-1.129162276274318</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4413939345390782</v>
+        <v>0.4263787999721731</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.02973246241042445</v>
       </c>
       <c r="E16" t="n">
-        <v>3.469009517819083</v>
+        <v>3.474375194553173</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.614156670968097</v>
+        <v>-1.597688788550738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6068816253550338</v>
+        <v>0.5785187311410414</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1735535259117076</v>
       </c>
       <c r="E17" t="n">
-        <v>4.136544965030631</v>
+        <v>4.113515626492728</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.932339111227466</v>
+        <v>-1.971079297247592</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7479631522833595</v>
+        <v>0.7154347408660046</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.409203365442575</v>
       </c>
       <c r="E18" t="n">
-        <v>4.700440358557116</v>
+        <v>4.684807623647757</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.39856677778475</v>
+        <v>-2.361039161704124</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9579063873713031</v>
+        <v>0.9235821168021305</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6716854347371923</v>
       </c>
       <c r="E19" t="n">
-        <v>5.144001508527088</v>
+        <v>5.126521812782729</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.729339942756071</v>
+        <v>-2.742598639469612</v>
       </c>
       <c r="G19" t="n">
-        <v>1.120271035320805</v>
+        <v>1.096520433025993</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.948220899860062</v>
       </c>
       <c r="E20" t="n">
-        <v>5.451569399165551</v>
+        <v>5.512682632106716</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.054764221546347</v>
+        <v>-3.072809685925933</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28143552373958</v>
+        <v>1.251552719462951</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.221461907601974</v>
       </c>
       <c r="E21" t="n">
-        <v>5.808573058114091</v>
+        <v>5.825841046885269</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.379222678524487</v>
+        <v>-3.365897549622809</v>
       </c>
       <c r="G21" t="n">
-        <v>1.446844371958626</v>
+        <v>1.386196894358461</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.473183731755958</v>
       </c>
       <c r="E22" t="n">
-        <v>6.094339510659106</v>
+        <v>6.084833137539199</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.639894554507008</v>
+        <v>-3.662113566354456</v>
       </c>
       <c r="G22" t="n">
-        <v>1.510969684111336</v>
+        <v>1.474648067753801</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.68975130555775</v>
       </c>
       <c r="E23" t="n">
-        <v>6.131989770779368</v>
+        <v>6.180669234178355</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.872057531466445</v>
+        <v>-3.885717741404987</v>
       </c>
       <c r="G23" t="n">
-        <v>1.622016561761579</v>
+        <v>1.577452973930864</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.867235660519903</v>
       </c>
       <c r="E24" t="n">
-        <v>6.256797601686426</v>
+        <v>6.289882291426417</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.100725153296247</v>
+        <v>-4.098318264018385</v>
       </c>
       <c r="G24" t="n">
-        <v>1.740159273133639</v>
+        <v>1.688305665185016</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.003812163856277</v>
       </c>
       <c r="E25" t="n">
-        <v>6.215914795092891</v>
+        <v>6.292013961639143</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.259682049001569</v>
+        <v>-4.198084080094222</v>
       </c>
       <c r="G25" t="n">
-        <v>1.72247225056037</v>
+        <v>1.697282040847923</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.096960713238169</v>
       </c>
       <c r="E26" t="n">
-        <v>6.123022155405007</v>
+        <v>6.193505976993625</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.279470080777654</v>
+        <v>-4.247824998455299</v>
       </c>
       <c r="G26" t="n">
-        <v>1.680441846167382</v>
+        <v>1.692996799701106</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.144289692004859</v>
       </c>
       <c r="E27" t="n">
-        <v>5.984900145956953</v>
+        <v>6.029408251960214</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.290616087903651</v>
+        <v>-4.291937431425923</v>
       </c>
       <c r="G27" t="n">
-        <v>1.710044321210556</v>
+        <v>1.708080556528284</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.145418183762323</v>
       </c>
       <c r="E28" t="n">
-        <v>5.915575602552518</v>
+        <v>5.940540964858966</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.242327917393028</v>
+        <v>-4.255663266631342</v>
       </c>
       <c r="G28" t="n">
-        <v>1.674223501348202</v>
+        <v>1.670082804962385</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.103299913578139</v>
       </c>
       <c r="E29" t="n">
-        <v>5.637893436286864</v>
+        <v>5.666523519301493</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.222714361363805</v>
+        <v>-4.227082095227759</v>
       </c>
       <c r="G29" t="n">
-        <v>1.630858613000122</v>
+        <v>1.61685967190449</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.024593487903299</v>
       </c>
       <c r="E30" t="n">
-        <v>5.539062781013254</v>
+        <v>5.536110563773438</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.207516720785537</v>
+        <v>-4.172666832903637</v>
       </c>
       <c r="G30" t="n">
-        <v>1.641354898725665</v>
+        <v>1.596988417387222</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.916848445087917</v>
       </c>
       <c r="E31" t="n">
-        <v>5.300073349204774</v>
+        <v>5.279350886650507</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.096791053715294</v>
+        <v>-4.03342131644963</v>
       </c>
       <c r="G31" t="n">
-        <v>1.471364419597347</v>
+        <v>1.44717142273099</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.789607588780585</v>
       </c>
       <c r="E32" t="n">
-        <v>4.955715166771594</v>
+        <v>4.941378954566961</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.922582495652341</v>
+        <v>-3.847335267167134</v>
       </c>
       <c r="G32" t="n">
-        <v>1.378305334427099</v>
+        <v>1.328219844716567</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.651574967504566</v>
       </c>
       <c r="E33" t="n">
-        <v>4.718133221322748</v>
+        <v>4.656730898859583</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.764956433781883</v>
+        <v>-3.632465829820464</v>
       </c>
       <c r="G33" t="n">
-        <v>1.380937801135008</v>
+        <v>1.276430478883945</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.510289512279571</v>
       </c>
       <c r="E34" t="n">
-        <v>4.353086157441392</v>
+        <v>4.266483404929142</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.609454011859652</v>
+        <v>-3.454527578909285</v>
       </c>
       <c r="G34" t="n">
-        <v>1.297929687022575</v>
+        <v>1.190648273398786</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.372485411700815</v>
       </c>
       <c r="E35" t="n">
-        <v>4.000302037475577</v>
+        <v>3.908056199091965</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.517722840428086</v>
+        <v>-3.320476183538684</v>
       </c>
       <c r="G35" t="n">
-        <v>1.25866753380995</v>
+        <v>1.116280723888351</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.241120963664416</v>
       </c>
       <c r="E36" t="n">
-        <v>3.704840865606929</v>
+        <v>3.564978478834512</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.3629117512769</v>
+        <v>-3.165280371715544</v>
       </c>
       <c r="G36" t="n">
-        <v>1.111218737157171</v>
+        <v>0.9835068705972962</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.117116480457697</v>
       </c>
       <c r="E37" t="n">
-        <v>3.327389233145212</v>
+        <v>3.176734170884798</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.232312639617254</v>
+        <v>-3.024020718920128</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9827184446282056</v>
+        <v>0.8665219773613276</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.002735350842047</v>
       </c>
       <c r="E38" t="n">
-        <v>3.036432309637018</v>
+        <v>2.827007391621347</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.052439094961575</v>
+        <v>-2.866991816718852</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8912902331755028</v>
+        <v>0.7708625465411715</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8979709099522388</v>
       </c>
       <c r="E39" t="n">
-        <v>2.641068807196033</v>
+        <v>2.463407235398081</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.923476697211837</v>
+        <v>-2.750390186106747</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7947854345107106</v>
+        <v>0.679654802350196</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8025374566952248</v>
       </c>
       <c r="E40" t="n">
-        <v>2.292796235831127</v>
+        <v>2.155821824182527</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.820373211200182</v>
+        <v>-2.624276342182371</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7011394100079175</v>
+        <v>0.5757052184698603</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7175210420097144</v>
       </c>
       <c r="E41" t="n">
-        <v>2.056142880968099</v>
+        <v>1.934158783068859</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.685382274883082</v>
+        <v>-2.516444490428309</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6212923000123026</v>
+        <v>0.4961223771786998</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.641416571786975</v>
       </c>
       <c r="E42" t="n">
-        <v>1.668409589850203</v>
+        <v>1.598014831195131</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.546889413219938</v>
+        <v>-2.427280813564606</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5743999354765879</v>
+        <v>0.4487715575424398</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5730830246784594</v>
       </c>
       <c r="E43" t="n">
-        <v>1.538716438030965</v>
+        <v>1.407217206723273</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.517159913992855</v>
+        <v>-2.376750739210392</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4896791849535198</v>
+        <v>0.3604021468401908</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5117095602016452</v>
       </c>
       <c r="E44" t="n">
-        <v>1.297296026151121</v>
+        <v>1.185981959700242</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.483215255927318</v>
+        <v>-2.340048780325175</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4228557039288104</v>
+        <v>0.3136689275463852</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4548128345374602</v>
       </c>
       <c r="E45" t="n">
-        <v>1.119295723196078</v>
+        <v>1.02382609862774</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.366883004187986</v>
+        <v>-2.228889478971932</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3313282092059259</v>
+        <v>0.2160880734385932</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4006129375155941</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8744456583506891</v>
+        <v>0.8129542729539784</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.359307544668306</v>
+        <v>-2.18952074224867</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3776905762846407</v>
+        <v>0.2295453366924987</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3481668512712476</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5303196235639633</v>
+        <v>0.5256489297211464</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.313867927983046</v>
+        <v>-2.117587822929826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3006759595853887</v>
+        <v>0.178335609951967</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2960323988500453</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3886891185534559</v>
+        <v>0.4030866527779066</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.20673689931262</v>
+        <v>-2.034440274224711</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2271362573424993</v>
+        <v>0.1154600989650748</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2436070194462329</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1875587337422372</v>
+        <v>0.2410578158893138</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.145872604570954</v>
+        <v>-1.952394331804188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1903810067019638</v>
+        <v>0.08357702880390151</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1915786876552153</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08351862688026516</v>
+        <v>0.1318228579198886</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.024278339511987</v>
+        <v>-1.875375334960663</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1069553188355316</v>
+        <v>0.03028673353382492</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1397980738540197</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01343777856473853</v>
+        <v>0.02883398568337076</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.982702740099316</v>
+        <v>-1.82691852889554</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09919224313617005</v>
+        <v>-0.01119469277698213</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08858345096566757</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05323239741042538</v>
+        <v>-0.04637893167169995</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.888132505154978</v>
+        <v>-1.749374644763334</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06305605288617976</v>
+        <v>-0.03238291067224916</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03877312666307487</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1800419542501186</v>
+        <v>-0.1324268659094041</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.829015157954085</v>
+        <v>-1.686986789838805</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0002122110371668922</v>
+        <v>-0.09575775810623215</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.009226498981145968</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1080907843301379</v>
+        <v>-0.1415404860928562</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.827290841158722</v>
+        <v>-1.66692718911781</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06616696344778554</v>
+        <v>-0.1383327604371298</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05479439567102729</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2668359730622771</v>
+        <v>-0.2755699807420929</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.82809897777704</v>
+        <v>-1.667868920136446</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.105962034213593</v>
+        <v>-0.1669657635479403</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09767540265983911</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3346698073658952</v>
+        <v>-0.3413130261795299</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.744493703995426</v>
+        <v>-1.615105702227188</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1256741434889514</v>
+        <v>-0.1944613891959329</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1388449215845836</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3248772648201706</v>
+        <v>-0.3760899116568842</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.732531529986611</v>
+        <v>-1.614117249669643</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1348826667983125</v>
+        <v>-0.194172299673933</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1784393754936925</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3247663011652616</v>
+        <v>-0.3849071420778818</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.722093646184705</v>
+        <v>-1.61534953025837</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1959404179120234</v>
+        <v>-0.2761028982952746</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2171737963641822</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.392724239556607</v>
+        <v>-0.4368819340180496</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.694349812361257</v>
+        <v>-1.616977483879733</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2452155809321011</v>
+        <v>-0.3166265330584456</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2563216473906209</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3255664075190795</v>
+        <v>-0.4373579096956859</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.669920287704173</v>
+        <v>-1.629119243803729</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2215467413303802</v>
+        <v>-0.3090196825048113</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2964539230887461</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.432717876862778</v>
+        <v>-0.5116933381481205</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.714736463854616</v>
+        <v>-1.656083411946631</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3193451426037175</v>
+        <v>-0.3787603396151561</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3380379771479161</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5580615454191989</v>
+        <v>-0.6356193000082691</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.699290615100892</v>
+        <v>-1.695942724828439</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3470787560905283</v>
+        <v>-0.4045141278906947</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.381386689953853</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5999036036084604</v>
+        <v>-0.7215518904467914</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.816219296485361</v>
+        <v>-1.776535919398508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3882170710999718</v>
+        <v>-0.4310636423757785</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4255152280612527</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.704688334996796</v>
+        <v>-0.8422248651603953</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.830045221882221</v>
+        <v>-1.775300718713599</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4301321316937787</v>
+        <v>-0.4817097905532194</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4698007533811081</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.798334359499589</v>
+        <v>-0.9068261529907417</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.761338278820239</v>
+        <v>-1.755306820156696</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4873893776268542</v>
+        <v>-0.5060341917477583</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5138002428889024</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8868556152032925</v>
+        <v>-0.9743986386860871</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.942327300217373</v>
+        <v>-1.909174718241154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4894159243770355</v>
+        <v>-0.5186285665799367</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5562047608754733</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.909730188643559</v>
+        <v>-0.9940129247393545</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.94719218045628</v>
+        <v>-1.938804934198055</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4729509620558581</v>
+        <v>-0.5132643498939382</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5959627014118113</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.905653734373742</v>
+        <v>-1.047119253949977</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.014001791024126</v>
+        <v>-1.998295323686176</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5518008592053825</v>
+        <v>-0.5647149845694699</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6322700229065764</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9115596289014676</v>
+        <v>-1.04731782049034</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.057891566660887</v>
+        <v>-2.043637847173391</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.513603081051029</v>
+        <v>-0.5543603235087453</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6638436373233648</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9659420401435439</v>
+        <v>-1.080125101093059</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.163616569019768</v>
+        <v>-2.129248497007868</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5561167613621085</v>
+        <v>-0.5715144285288317</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6900556410460522</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9829004987194485</v>
+        <v>-1.058941263342065</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.274255363228602</v>
+        <v>-2.193242404832396</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6653327387063519</v>
+        <v>-0.6390591733104499</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7103159830584395</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.005580885763624</v>
+        <v>-1.032645797224799</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.355378555255671</v>
+        <v>-2.249169546954654</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6221488963215454</v>
+        <v>-0.626264771889817</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7237691967555226</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9136737785371034</v>
+        <v>-0.9345393258042797</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.352806680543535</v>
+        <v>-2.25251378710688</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.67926013744553</v>
+        <v>-0.6744697196592586</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7298158875497746</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8937835433946543</v>
+        <v>-0.8664675036618433</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.372203419431257</v>
+        <v>-2.26133393762406</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7324044279065157</v>
+        <v>-0.6933277008014354</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.727707978912446</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7068754870369771</v>
+        <v>-0.6860508211163464</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.391073810982207</v>
+        <v>-2.246115856372518</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7248121778337905</v>
+        <v>-0.6760232108279854</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7170532489670192</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6196200930280915</v>
+        <v>-0.5526330866172003</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.260746998291514</v>
+        <v>-2.155445409878997</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7004921567835243</v>
+        <v>-0.6443752084094485</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6985130271550082</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4548901671713175</v>
+        <v>-0.3823038763317916</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.335805150548949</v>
+        <v>-2.189904004872533</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6112116760725482</v>
+        <v>-0.6125826612299116</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6723537001353795</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2699750764577308</v>
+        <v>-0.2330855013928316</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.239317872461247</v>
+        <v>-2.138221952574593</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6372414134372686</v>
+        <v>-0.6313398990538156</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6401357910503968</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.08334880938159911</v>
+        <v>-0.03082065921497686</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.222534619656252</v>
+        <v>-2.10431525575942</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.53707919430475</v>
+        <v>-0.5322858564222968</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6034864403547678</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08865945620835469</v>
+        <v>0.1392778634720684</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.166888536791494</v>
+        <v>-2.069293812226839</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4989894597091239</v>
+        <v>-0.5058502256883038</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5634989571325701</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2450583476584036</v>
+        <v>0.3087923669227501</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.059282992491523</v>
+        <v>-1.998542801837585</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3799079374146104</v>
+        <v>-0.4047243748157855</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5211459776431721</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4842302854782485</v>
+        <v>0.5227682548377836</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.996436682466449</v>
+        <v>-1.938850195688874</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3257386931938068</v>
+        <v>-0.3245983956348071</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4776273371522526</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7220852599200936</v>
+        <v>0.7880604530039851</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.935500115344284</v>
+        <v>-1.853976870140305</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2902463841519072</v>
+        <v>-0.2810685218524551</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4337668534973071</v>
       </c>
       <c r="E84" t="n">
-        <v>1.088123696455177</v>
+        <v>1.099919424981629</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.88957284259666</v>
+        <v>-1.824954764213268</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2511740371910995</v>
+        <v>-0.2381066067774666</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3909558857013234</v>
       </c>
       <c r="E85" t="n">
-        <v>1.225470420366959</v>
+        <v>1.275596791424036</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.769006451393692</v>
+        <v>-1.761716431275785</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2375152873006486</v>
+        <v>-0.2076237227354748</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3510504631120986</v>
       </c>
       <c r="E86" t="n">
-        <v>1.547348242344418</v>
+        <v>1.54738474354669</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.751742842766787</v>
+        <v>-1.694554219093985</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1543976695813982</v>
+        <v>-0.1377983828358572</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3148546013142986</v>
       </c>
       <c r="E87" t="n">
-        <v>1.771221796267721</v>
+        <v>1.773448369606357</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.628523544182639</v>
+        <v>-1.607884304369553</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09022125574550637</v>
+        <v>-0.05611745243806097</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2833133816615885</v>
       </c>
       <c r="E88" t="n">
-        <v>1.937201523290313</v>
+        <v>1.93469024057395</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.476798266671589</v>
+        <v>-1.486174695511404</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0919893739835968</v>
+        <v>-0.06722403826560344</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2554511949395292</v>
       </c>
       <c r="E89" t="n">
-        <v>2.123906632963354</v>
+        <v>2.099258101092633</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.41974542747124</v>
+        <v>-1.407523364902244</v>
       </c>
       <c r="G89" t="n">
-        <v>0.008971491454648824</v>
+        <v>0.01430942727501103</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2298646036514952</v>
       </c>
       <c r="E90" t="n">
-        <v>2.263618634782407</v>
+        <v>2.234095002336142</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.200352761138936</v>
+        <v>-1.210808165517933</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04449592155454837</v>
+        <v>0.06573962127726994</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2066570479675349</v>
       </c>
       <c r="E91" t="n">
-        <v>2.31269377121403</v>
+        <v>2.261608148561226</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.013882719208531</v>
+        <v>-1.029886306332981</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07356255894835875</v>
+        <v>0.09154743133217211</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.187311676837753</v>
       </c>
       <c r="E92" t="n">
-        <v>2.307531041164577</v>
+        <v>2.247076289912412</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8481073989186665</v>
+        <v>-0.8707352242315695</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08807543697199122</v>
+        <v>0.1127195886984391</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1740619626460578</v>
       </c>
       <c r="E93" t="n">
-        <v>2.340589450038932</v>
+        <v>2.261692831350498</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6372457935815413</v>
+        <v>-0.6771021863671669</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06847429135154194</v>
+        <v>0.09394337024935329</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1688545703981633</v>
       </c>
       <c r="E94" t="n">
-        <v>2.288782563629218</v>
+        <v>2.214632561284329</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4844911821664005</v>
+        <v>-0.5181029492672097</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02804993985855279</v>
+        <v>0.08744761629290047</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1730542075142665</v>
       </c>
       <c r="E95" t="n">
-        <v>2.214963992200965</v>
+        <v>2.107667978096267</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2990110528416321</v>
+        <v>-0.326950533109261</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01018333137010304</v>
+        <v>0.04988349901000148</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.185665189813366</v>
       </c>
       <c r="E96" t="n">
-        <v>2.060988780581825</v>
+        <v>1.963470708541942</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1470039860490366</v>
+        <v>-0.1996168190049315</v>
       </c>
       <c r="G96" t="n">
-        <v>0.004905257521468098</v>
+        <v>0.01668054537464675</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2040212977327106</v>
       </c>
       <c r="E97" t="n">
-        <v>1.926246782464225</v>
+        <v>1.837157568053158</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.04328946991133714</v>
+        <v>-0.09759887874886801</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02494688574525116</v>
+        <v>0.001396761959014494</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2261152192153427</v>
       </c>
       <c r="E98" t="n">
-        <v>1.771580968098085</v>
+        <v>1.681612804736291</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03903680174264075</v>
+        <v>-0.02402413535179686</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02517465324743292</v>
+        <v>-0.008757872513255507</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2492902838202499</v>
       </c>
       <c r="E99" t="n">
-        <v>1.581298740602318</v>
+        <v>1.513142235670609</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0881221585109003</v>
+        <v>0.02908949409927979</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0669977308115126</v>
+        <v>-0.04437282559479139</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2728554583456773</v>
       </c>
       <c r="E100" t="n">
-        <v>1.446204870894808</v>
+        <v>1.377899441057827</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1853000393456015</v>
+        <v>0.09347761490835341</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1187608157784987</v>
+        <v>-0.07792473072387329</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2937841249704143</v>
       </c>
       <c r="E101" t="n">
-        <v>1.265293232046493</v>
+        <v>1.211192610085962</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2072708430175956</v>
+        <v>0.09656269652444349</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05013271531342622</v>
+        <v>-0.04828575447842671</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3148053391362777</v>
       </c>
       <c r="E102" t="n">
-        <v>1.129631403631621</v>
+        <v>1.079688998633998</v>
       </c>
       <c r="F102" t="n">
-        <v>0.199795396792143</v>
+        <v>0.1011560078184423</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1491823778006723</v>
+        <v>-0.114966150790227</v>
       </c>
     </row>
   </sheetData>
